--- a/public/download/actualisation/WAS-donnees-branches-2018_actualisation-2021.xlsx
+++ b/public/download/actualisation/WAS-donnees-branches-2018_actualisation-2021.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="388">
   <si>
     <t>EMPREINTE DES COMPTES DE PRODUCTION PAR BRANCHE</t>
   </si>
@@ -928,16 +928,16 @@
     <t xml:space="preserve">325</t>
   </si>
   <si>
-    <t xml:space="preserve">336</t>
+    <t xml:space="preserve">335,6</t>
   </si>
   <si>
     <t xml:space="preserve">46079</t>
   </si>
   <si>
-    <t xml:space="preserve">854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">882</t>
+    <t xml:space="preserve">853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">880,8</t>
   </si>
   <si>
     <t xml:space="preserve">217841</t>
@@ -946,88 +946,100 @@
     <t xml:space="preserve">293</t>
   </si>
   <si>
-    <t xml:space="preserve">303</t>
+    <t xml:space="preserve">302,5</t>
   </si>
   <si>
     <t xml:space="preserve">56600</t>
   </si>
   <si>
+    <t xml:space="preserve">268,5</t>
+  </si>
+  <si>
     <t xml:space="preserve">50770</t>
   </si>
   <si>
     <t xml:space="preserve">519</t>
   </si>
   <si>
+    <t xml:space="preserve">535,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">714,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">598,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">604,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">435,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">671,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">577,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">549,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247901</t>
+  </si>
+  <si>
     <t xml:space="preserve">536</t>
   </si>
   <si>
-    <t xml:space="preserve">63598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">247901</t>
+    <t xml:space="preserve">553,5</t>
   </si>
   <si>
     <t xml:space="preserve">108548</t>
@@ -1036,7 +1048,7 @@
     <t xml:space="preserve">278</t>
   </si>
   <si>
-    <t xml:space="preserve">287</t>
+    <t xml:space="preserve">287,1</t>
   </si>
   <si>
     <t xml:space="preserve">125622</t>
@@ -1045,7 +1057,7 @@
     <t xml:space="preserve">428</t>
   </si>
   <si>
-    <t xml:space="preserve">442</t>
+    <t xml:space="preserve">441,9</t>
   </si>
   <si>
     <t xml:space="preserve">53431</t>
@@ -1054,7 +1066,7 @@
     <t xml:space="preserve">965</t>
   </si>
   <si>
-    <t xml:space="preserve">996</t>
+    <t xml:space="preserve">996,5</t>
   </si>
   <si>
     <t xml:space="preserve">298417</t>
@@ -1063,7 +1075,7 @@
     <t xml:space="preserve">1200</t>
   </si>
   <si>
-    <t xml:space="preserve">1239</t>
+    <t xml:space="preserve">1239,1</t>
   </si>
   <si>
     <t xml:space="preserve">451825</t>
@@ -1072,19 +1084,22 @@
     <t xml:space="preserve">186</t>
   </si>
   <si>
+    <t xml:space="preserve">192,1</t>
+  </si>
+  <si>
     <t xml:space="preserve">246436</t>
   </si>
   <si>
     <t xml:space="preserve">261</t>
   </si>
   <si>
-    <t xml:space="preserve">270</t>
+    <t xml:space="preserve">269,5</t>
   </si>
   <si>
     <t xml:space="preserve">115922</t>
   </si>
   <si>
-    <t xml:space="preserve">199</t>
+    <t xml:space="preserve">199,3</t>
   </si>
   <si>
     <t xml:space="preserve">63985</t>
@@ -1099,16 +1114,22 @@
     <t xml:space="preserve">58702</t>
   </si>
   <si>
+    <t xml:space="preserve">259,2</t>
+  </si>
+  <si>
     <t xml:space="preserve">114519</t>
   </si>
   <si>
+    <t xml:space="preserve">154,9</t>
+  </si>
+  <si>
     <t xml:space="preserve">237250</t>
   </si>
   <si>
     <t xml:space="preserve">173</t>
   </si>
   <si>
-    <t xml:space="preserve">179</t>
+    <t xml:space="preserve">178,6</t>
   </si>
   <si>
     <t xml:space="preserve">331336</t>
@@ -1117,7 +1138,7 @@
     <t xml:space="preserve">454</t>
   </si>
   <si>
-    <t xml:space="preserve">469</t>
+    <t xml:space="preserve">468,8</t>
   </si>
   <si>
     <t xml:space="preserve">290235</t>
@@ -1126,7 +1147,7 @@
     <t xml:space="preserve">161</t>
   </si>
   <si>
-    <t xml:space="preserve">166</t>
+    <t xml:space="preserve">166,2</t>
   </si>
   <si>
     <t xml:space="preserve">74905</t>
@@ -1135,7 +1156,7 @@
     <t xml:space="preserve">247</t>
   </si>
   <si>
-    <t xml:space="preserve">255</t>
+    <t xml:space="preserve">255,1</t>
   </si>
   <si>
     <t xml:space="preserve">45495</t>
@@ -1144,19 +1165,22 @@
     <t xml:space="preserve">194</t>
   </si>
   <si>
-    <t xml:space="preserve">200</t>
+    <t xml:space="preserve">200,3</t>
   </si>
   <si>
     <t xml:space="preserve">250449</t>
   </si>
   <si>
+    <t xml:space="preserve">179,7</t>
+  </si>
+  <si>
     <t xml:space="preserve">196594</t>
   </si>
   <si>
     <t xml:space="preserve">285</t>
   </si>
   <si>
-    <t xml:space="preserve">294</t>
+    <t xml:space="preserve">294,3</t>
   </si>
   <si>
     <t xml:space="preserve">137165</t>
@@ -1177,19 +1201,22 @@
     <t xml:space="preserve">142</t>
   </si>
   <si>
-    <t xml:space="preserve">147</t>
+    <t xml:space="preserve">146,6</t>
   </si>
   <si>
     <t xml:space="preserve">54651</t>
   </si>
   <si>
-    <t xml:space="preserve">307</t>
+    <t xml:space="preserve">306,7</t>
   </si>
   <si>
     <t xml:space="preserve">47773</t>
   </si>
   <si>
-    <t xml:space="preserve">163</t>
+    <t xml:space="preserve">163,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,4</t>
   </si>
   <si>
     <t xml:space="preserve">4918916</t>
@@ -1198,7 +1225,7 @@
     <t xml:space="preserve">372</t>
   </si>
   <si>
-    <t xml:space="preserve">384</t>
+    <t xml:space="preserve">384,1</t>
   </si>
 </sst>
 </file>
@@ -2855,7 +2882,7 @@
         <v>198</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>199</v>
+        <v>296</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="12"/>
@@ -2868,13 +2895,13 @@
         <v>121</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="12"/>
@@ -2887,13 +2914,13 @@
         <v>126</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="12"/>
@@ -2906,13 +2933,13 @@
         <v>131</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F12"/>
       <c r="G12" s="12"/>
@@ -2925,13 +2952,13 @@
         <v>136</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F13"/>
       <c r="G13" s="12"/>
@@ -2944,13 +2971,13 @@
         <v>141</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F14"/>
       <c r="G14" s="12"/>
@@ -2963,13 +2990,13 @@
         <v>146</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F15"/>
       <c r="G15" s="12"/>
@@ -2982,13 +3009,13 @@
         <v>151</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F16"/>
       <c r="G16" s="12"/>
@@ -3001,13 +3028,13 @@
         <v>156</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>138</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>139</v>
+        <v>319</v>
       </c>
       <c r="F17"/>
       <c r="G17" s="12"/>
@@ -3020,13 +3047,13 @@
         <v>161</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F18"/>
       <c r="G18" s="12"/>
@@ -3039,13 +3066,13 @@
         <v>166</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="F19"/>
       <c r="G19" s="12"/>
@@ -3058,13 +3085,13 @@
         <v>171</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F20"/>
       <c r="G20" s="12"/>
@@ -3077,13 +3104,13 @@
         <v>176</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F21"/>
       <c r="G21" s="12"/>
@@ -3096,13 +3123,13 @@
         <v>181</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F22"/>
       <c r="G22" s="12"/>
@@ -3115,13 +3142,13 @@
         <v>186</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F23"/>
       <c r="G23" s="12"/>
@@ -3134,13 +3161,13 @@
         <v>191</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="F24"/>
       <c r="G24" s="12"/>
@@ -3153,13 +3180,13 @@
         <v>196</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F25"/>
       <c r="G25" s="12"/>
@@ -3172,13 +3199,13 @@
         <v>201</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>194</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F26"/>
       <c r="G26" s="12"/>
@@ -3191,13 +3218,13 @@
         <v>206</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="F27"/>
       <c r="G27" s="12"/>
@@ -3210,13 +3237,13 @@
         <v>210</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>118</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>119</v>
+        <v>350</v>
       </c>
       <c r="F28"/>
       <c r="G28" s="12"/>
@@ -3229,13 +3256,13 @@
         <v>213</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>258</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>259</v>
+        <v>352</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="12"/>
@@ -3248,13 +3275,13 @@
         <v>218</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="F30"/>
       <c r="G30" s="12"/>
@@ -3267,13 +3294,13 @@
         <v>223</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="F31"/>
       <c r="G31" s="12"/>
@@ -3286,13 +3313,13 @@
         <v>228</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="12"/>
@@ -3305,13 +3332,13 @@
         <v>233</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="12"/>
@@ -3324,13 +3351,13 @@
         <v>238</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F34"/>
       <c r="G34" s="12"/>
@@ -3343,13 +3370,13 @@
         <v>243</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>220</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>221</v>
+        <v>369</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="12"/>
@@ -3362,13 +3389,13 @@
         <v>248</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="F36"/>
       <c r="G36" s="12"/>
@@ -3381,13 +3408,13 @@
         <v>253</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="F37"/>
       <c r="G37" s="12"/>
@@ -3400,13 +3427,13 @@
         <v>256</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="D38" s="27" t="s">
         <v>258</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>259</v>
+        <v>352</v>
       </c>
       <c r="F38"/>
       <c r="G38" s="12"/>
@@ -3419,13 +3446,13 @@
         <v>261</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F39"/>
       <c r="G39" s="12"/>
@@ -3438,13 +3465,13 @@
         <v>266</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="D40" s="27" t="s">
         <v>114</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="F40"/>
       <c r="G40" s="12"/>
@@ -3457,13 +3484,13 @@
         <v>271</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="F41"/>
       <c r="G41" s="12"/>
@@ -3482,7 +3509,7 @@
         <v>278</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>278</v>
+        <v>384</v>
       </c>
       <c r="F42"/>
       <c r="G42" s="12"/>
@@ -3495,13 +3522,13 @@
         <v>279</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="F43"/>
       <c r="G43" s="12"/>
@@ -3774,9 +3801,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{536EACB6-44DA-48DB-96E2-9B629032CE9E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D70AB6B-4A94-48BB-8221-9B9D64B31AED}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5775EF65-1BC4-439D-87FD-3731E16DC644}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5245C2E6-C010-422E-9698-86AFFAEC34F6}"/>
 </file>